--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/13_Action.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/13_Action.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\src\app-catalog-main\installations-no-std\isp\baf-configuration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>Operation</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>Business_Model</t>
-  </si>
-  <si>
-    <t>WarningScore_Matrix</t>
   </si>
   <si>
     <t>DELETE</t>
@@ -1519,6 +1516,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13820775" cy="9982200"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2431,6 +2476,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10915650" cy="9982200"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3343,6 +3436,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9896475" cy="9982200"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4255,6 +4396,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9877425" cy="9982200"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5167,6 +5356,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8210550" cy="9982200"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5273,7 +5510,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5321,7 +5558,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5369,7 +5606,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5417,7 +5654,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5465,7 +5702,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5513,7 +5750,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5561,7 +5798,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5609,7 +5846,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5657,7 +5894,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5705,7 +5942,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5753,7 +5990,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5801,7 +6038,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5849,7 +6086,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5897,7 +6134,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5945,7 +6182,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5993,7 +6230,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6041,7 +6278,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6055,6 +6292,54 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="8667750" cy="9934575"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8667750" cy="9963150"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6524,10 +6809,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -6550,7 +6835,7 @@
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -6561,7 +6846,7 @@
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -6572,7 +6857,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
@@ -6583,23 +6868,12 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
         <v>16</v>
       </c>
     </row>
